--- a/backend/src/static/templates/reports/Apiary_Sites_Summary_Template.xlsx
+++ b/backend/src/static/templates/reports/Apiary_Sites_Summary_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947004A7-6B39-48B7-A9F3-2F5BBDC816D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EC74B3-E20E-460B-A753-6899D1C51B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39870" yWindow="1470" windowWidth="28800" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
+    <workbookView xWindow="14715" yWindow="4005" windowWidth="28800" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
   <sheets>
     <sheet name="Apiary Producer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Last Name</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>{d.Reg[i].Num_Sites}</t>
+  </si>
+  <si>
+    <t>{d.Reg[i].SitesWithPremisesId}</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -193,9 +196,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,12 +589,12 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="5"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -627,7 +627,9 @@
       <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="5"/>
@@ -665,6 +667,9 @@
       <c r="I7" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="11"/>
     </row>
@@ -706,15 +711,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8CBF3948AF16E4A9427EB9CB0C3AFDB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc8a81a77eeb73bda9729b3f784b8c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc8b8595-9fa1-49bc-a016-2621e7bde64e" xmlns:ns3="e1c8ebbc-f196-4c28-98e9-1900bd408e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88ad40c7f0e134defa4acd5e486d3459" ns2:_="" ns3:_="">
     <xsd:import namespace="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
@@ -925,6 +921,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -932,14 +937,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03155FF8-1FF1-4181-B2B9-505B2808F58D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6470599-A386-4A6B-9059-1EE4DCF6BB3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -958,6 +955,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03155FF8-1FF1-4181-B2B9-505B2808F58D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE8867F-A406-43FE-8CA7-900664EF104F}">
   <ds:schemaRefs>

--- a/backend/src/static/templates/reports/Apiary_Sites_Summary_Template.xlsx
+++ b/backend/src/static/templates/reports/Apiary_Sites_Summary_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\app\server\static\templates\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\backend\src\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EC74B3-E20E-460B-A753-6899D1C51B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D039C0A-2A4D-4631-B1FE-714EEFF515FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="4005" windowWidth="28800" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="38700" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
   <sheets>
     <sheet name="Apiary Producer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Last Name</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>{d.Reg[i].SitesWithPremisesId}</t>
+  </si>
+  <si>
+    <t>Total # Sites with Premises ID</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +534,7 @@
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
@@ -599,7 +602,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -628,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -711,6 +714,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8CBF3948AF16E4A9427EB9CB0C3AFDB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc8a81a77eeb73bda9729b3f784b8c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc8b8595-9fa1-49bc-a016-2621e7bde64e" xmlns:ns3="e1c8ebbc-f196-4c28-98e9-1900bd408e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88ad40c7f0e134defa4acd5e486d3459" ns2:_="" ns3:_="">
     <xsd:import namespace="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
@@ -921,15 +933,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -937,6 +940,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03155FF8-1FF1-4181-B2B9-505B2808F58D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6470599-A386-4A6B-9059-1EE4DCF6BB3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -955,14 +966,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03155FF8-1FF1-4181-B2B9-505B2808F58D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE8867F-A406-43FE-8CA7-900664EF104F}">
   <ds:schemaRefs>
